--- a/Code/Data/DJI/DJI_efficient_portfolios_and_returns.xlsx
+++ b/Code/Data/DJI/DJI_efficient_portfolios_and_returns.xlsx
@@ -615,91 +615,91 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.01466935663648644</v>
+        <v>0.005898327930536132</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04678734756601595</v>
+        <v>0.04302695127177394</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03304021364785293</v>
+        <v>0.04222613309924396</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00409461529250043</v>
+        <v>0.01614242238323348</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03914284490574347</v>
+        <v>0.001533824842872851</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00216099895580481</v>
+        <v>0.001478049604341935</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04805397946140569</v>
+        <v>0.03090573052634745</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04410340563088131</v>
+        <v>0.04883501335788876</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04389975888574398</v>
+        <v>0.002378941829602193</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006723524071058497</v>
+        <v>0.001131298538210322</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002695792045045559</v>
+        <v>0.01225493022478491</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02257654310148827</v>
+        <v>0.008073707209844802</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05656007892674162</v>
+        <v>0.04442943481565525</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03801234769341705</v>
+        <v>0.002636319778843179</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06979803136353074</v>
+        <v>0.06367712388643636</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02400635372378507</v>
+        <v>0.07344217590634619</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04666406539477105</v>
+        <v>0.05478438522787552</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04137679947867052</v>
+        <v>0.05364562744910303</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004393416850691786</v>
+        <v>0.05721315799211786</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04879314795097964</v>
+        <v>0.05688307545377123</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.04143673402903392</v>
+        <v>0.02785656643380044</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04374442058293236</v>
+        <v>0.0489467699931593</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05632106407957025</v>
+        <v>0.06009640765931337</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04617053403120413</v>
+        <v>0.0224435828233133</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0349788331022651</v>
+        <v>0.02114443746527733</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01868974776318574</v>
+        <v>0.06573072918056126</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.07008779087376381</v>
+        <v>0.06642353748423405</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.05101825395542971</v>
+        <v>0.06676133763151165</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.3765319533284662</v>
+        <v>0.08766135207748914</v>
       </c>
     </row>
     <row r="3">
@@ -722,96 +722,96 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.003007198260953638</v>
+        <v>0.003403406603490159</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04085535325773783</v>
+        <v>0.02796435026508315</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06430164687633738</v>
+        <v>0.03860595454033849</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04542730059830453</v>
+        <v>0.02580171874164015</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01844482427838497</v>
+        <v>0.00505647103479549</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00605115397351145</v>
+        <v>0.003056814566679809</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06743813914475939</v>
+        <v>0.03912818669676405</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05105680324251757</v>
+        <v>0.07474755766665257</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07114193458669275</v>
+        <v>0.07455597251265507</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0443913957337844</v>
+        <v>0.07259317268724111</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02469022928111235</v>
+        <v>0.0008595714281491626</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02192519003732635</v>
+        <v>0.04186503574503287</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06595850182189859</v>
+        <v>0.07950137324822736</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01504830105467606</v>
+        <v>0.01085837325819228</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01351500748630825</v>
+        <v>0.01753388181483145</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03707514315749978</v>
+        <v>0.008598465832973646</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0646657946781705</v>
+        <v>0.03088795731459317</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03049140791887675</v>
+        <v>0.03677295473720891</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04565979055933825</v>
+        <v>0.005609262491365743</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04121836658647597</v>
+        <v>0.07914819986595062</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01672895123563643</v>
+        <v>0.06710313939166693</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01434092043171827</v>
+        <v>0.07235131191183525</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0255699988981856</v>
+        <v>0.001475072186008953</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05572104302788277</v>
+        <v>0.05746354118457278</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.006057318828185341</v>
+        <v>0.01303740313135062</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.05250313974109373</v>
+        <v>0.02589846869371885</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02316029741970907</v>
+        <v>0.03011678659129135</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.03355484788292219</v>
+        <v>0.05600559585768979</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.3590756129158527</v>
+        <v>0.1269817793638268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -829,96 +829,96 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.004114450811918233</v>
+        <v>0.007520364802244534</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03952562541467676</v>
+        <v>0.01483467507136467</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04196944485696716</v>
+        <v>0.02172272966490973</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03022572140092309</v>
+        <v>0.001785384634905912</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01617790700865385</v>
+        <v>0.005235610262077071</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01001586675903253</v>
+        <v>0.007405841857676738</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0325012645846578</v>
+        <v>0.01025467531654074</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04071401257470103</v>
+        <v>0.005069457253389145</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0641333036508535</v>
+        <v>0.03620266988385504</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008003337346475067</v>
+        <v>0.004725388697406061</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05497921318136173</v>
+        <v>0.0139158508873457</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04981640733004694</v>
+        <v>0.07437043298481537</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02314672653311567</v>
+        <v>0.047984041232916</v>
       </c>
       <c r="R4" t="n">
-        <v>0.008176320115079723</v>
+        <v>0.003449900703675798</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01992666838013749</v>
+        <v>0.04634738633603475</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02401331061134709</v>
+        <v>0.04836872472944895</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06877479816538133</v>
+        <v>0.06579598802985066</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06780064685597838</v>
+        <v>0.08096114715965073</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03090486669220338</v>
+        <v>0.07139203899136419</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0357228817327166</v>
+        <v>0.0292363193887547</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06635681786203787</v>
+        <v>0.007057081341740153</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01872249767223904</v>
+        <v>0.07482207546121813</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06151519122263464</v>
+        <v>0.08253924910465527</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01460401616621255</v>
+        <v>0.03240803348264962</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06989890732630921</v>
+        <v>0.07572961779573772</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01611664683395625</v>
+        <v>0.004069061509594039</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.06683839826379966</v>
+        <v>0.06848085884113168</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01530475064658354</v>
+        <v>0.0583153945750468</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.1132811661867134</v>
+        <v>-0.2354189474612667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -936,96 +936,96 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.06318373167304572</v>
+        <v>0.08251334246468028</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02694114168624395</v>
+        <v>0.004075090815151408</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02130573207950966</v>
+        <v>0.04344559952728605</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03871924417930028</v>
+        <v>0.01845229940900067</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06918768987992956</v>
+        <v>0.06217014694884802</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04534631211669378</v>
+        <v>0.03370669431588242</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04391950082925658</v>
+        <v>0.02425912534933213</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02655923060576237</v>
+        <v>0.0661821602555946</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006041059199150891</v>
+        <v>0.01374697623470969</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02636388934523942</v>
+        <v>0.03419213179488811</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00937742098792755</v>
+        <v>0.001563983885314364</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07142868153124739</v>
+        <v>0.03324985624625524</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05920669753585377</v>
+        <v>0.03905810072537296</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05264602979693406</v>
+        <v>0.01746693668257356</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03702356568485893</v>
+        <v>0.03041624787678458</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01896052385465866</v>
+        <v>0.003054332615629292</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06565524069774611</v>
+        <v>0.05497210689556911</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01346568811247052</v>
+        <v>0.06548467946661869</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06623923301620842</v>
+        <v>0.004168322115392016</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06183116905243764</v>
+        <v>0.07281763467738901</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.008686129108486963</v>
+        <v>0.06682934206459806</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.04934351733393302</v>
+        <v>0.06735367619517425</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01646005369346263</v>
+        <v>0.02971170340852601</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00387613194734575</v>
+        <v>0.002896792133410815</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02203481237378977</v>
+        <v>0.0273098562525109</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04394430728180276</v>
+        <v>0.02679739461613486</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.002023051005302962</v>
+        <v>0.0722253679569705</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03023021539140076</v>
+        <v>0.00188009907040232</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.08727859344595731</v>
+        <v>-0.3394400506101327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1043,96 +1043,96 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.07151936664765828</v>
+        <v>0.04100579361962582</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08250035949073085</v>
+        <v>0.06528384823561066</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003214988942570972</v>
+        <v>0.007645732085372016</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00675669534834538</v>
+        <v>0.02655622017810877</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07454314870080905</v>
+        <v>0.003349729361056962</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004213883804443735</v>
+        <v>0.01133105776722112</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009038097378512119</v>
+        <v>0.0323831766714817</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003815748102825226</v>
+        <v>0.008686241033415766</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02341987371747436</v>
+        <v>0.009483776796864603</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004048089639021952</v>
+        <v>0.03848432342569592</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0669771312259345</v>
+        <v>0.07448553446072852</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03795991059958929</v>
+        <v>0.03554119316961687</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03122761635541453</v>
+        <v>0.0753538473293833</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0009545834184405406</v>
+        <v>0.02789564933680315</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05930735565048333</v>
+        <v>0.07002536982767667</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01759389339126951</v>
+        <v>0.01160650032223069</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06872765056791014</v>
+        <v>0.07911370413159208</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05638666907136639</v>
+        <v>0.04685605466111364</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02650132629529031</v>
+        <v>0.07409359578652444</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06150153605992818</v>
+        <v>0.01112859621102046</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06176860840958313</v>
+        <v>0.02990188903846423</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.008242805812493452</v>
+        <v>0.06023015750088876</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04322969408544333</v>
+        <v>0.01363638602380062</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.030242911445585</v>
+        <v>0.002674216432920958</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.04652347029028903</v>
+        <v>0.03108351300843232</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02033005028398218</v>
+        <v>0.006869815485966493</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.01201656354943745</v>
+        <v>0.02922646804643558</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0674379717151678</v>
+        <v>0.07606761005194769</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0792508052848864</v>
+        <v>0.296723431996944</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1150,96 +1150,96 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.01912574595590667</v>
+        <v>0.01675121686474394</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06669371313451593</v>
+        <v>0.07004120830659608</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0246034109157601</v>
+        <v>0.02282416619247041</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0290954589945574</v>
+        <v>0.0420533963957818</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02624910444779587</v>
+        <v>0.01818753328985338</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02093748218298157</v>
+        <v>0.0322677247058961</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04567167930755809</v>
+        <v>0.02246798389206766</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004933493681876611</v>
+        <v>0.05957035236538859</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02775793749020293</v>
+        <v>0.0582454064982629</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02584796730988279</v>
+        <v>0.03073078115389916</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04466312497496398</v>
+        <v>0.05709222916341741</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003617188064580438</v>
+        <v>0.001733710575687329</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02069735586200283</v>
+        <v>0.05706390028582956</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04933053118060709</v>
+        <v>0.01198703733471268</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06595423558470585</v>
+        <v>0.04021481444746782</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04555516168808285</v>
+        <v>0.07709156582362856</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01778116492607723</v>
+        <v>0.007986659489986492</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04759493078734892</v>
+        <v>0.04291374936218997</v>
       </c>
       <c r="W7" t="n">
-        <v>0.06362943888566042</v>
+        <v>0.02203721786265708</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02377558599397635</v>
+        <v>0.0124268245549928</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.009682079814961045</v>
+        <v>0.002156833379397679</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.06476856641555467</v>
+        <v>0.01643539757770152</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0049254840333039</v>
+        <v>0.06180168066905892</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.06035203349863136</v>
+        <v>0.0585391858891463</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.02917701884800023</v>
+        <v>0.002225832279036851</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.05923227237759278</v>
+        <v>0.01136550951490865</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.04165365353709748</v>
+        <v>0.07057261570574809</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.05669418010581476</v>
+        <v>0.07321546641947244</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.01300764345789167</v>
+        <v>0.2719462351240929</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1257,96 +1257,96 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.008631385189211936</v>
+        <v>0.01791398327259517</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03614700475956791</v>
+        <v>0.05402574848358639</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04096950929209343</v>
+        <v>0.00905691875183417</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03356272749601556</v>
+        <v>0.02100507911608906</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02524406854610148</v>
+        <v>0.01375848192686451</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0009888378382143653</v>
+        <v>0.005939069172168607</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05045115679730437</v>
+        <v>0.05298879096328184</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00576631286025078</v>
+        <v>0.0142488989050384</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06148292510541244</v>
+        <v>0.0338740632274025</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01222142122426172</v>
+        <v>0.008963072303878305</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03499435470538535</v>
+        <v>0.06416832106892535</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003793038480943299</v>
+        <v>0.01967225590165751</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06758747748490319</v>
+        <v>0.07146939600048038</v>
       </c>
       <c r="R8" t="n">
-        <v>0.05050919918269394</v>
+        <v>0.0591636405928085</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06481843367057151</v>
+        <v>0.07647717387018495</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01255645089516414</v>
+        <v>0.007229106371578968</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05404368374087085</v>
+        <v>0.06322592297815026</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06872265402485297</v>
+        <v>0.05094952204556317</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05525166798113187</v>
+        <v>0.0513839588231061</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0413477357802923</v>
+        <v>0.04281300423124194</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02918040518242017</v>
+        <v>0.05214712753954109</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02027497291080989</v>
+        <v>0.03840483865823606</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.06824459621597782</v>
+        <v>0.002832721201205508</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01254956280614308</v>
+        <v>0.005568525111534391</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.02130870464623574</v>
+        <v>0.01629417657517662</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.05387720504955069</v>
+        <v>0.05261044504754338</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.06488303274148005</v>
+        <v>0.02547739341440527</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0005914753921389872</v>
+        <v>0.06833836444592155</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.026038366344003</v>
+        <v>0.0866971311193678</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1364,96 +1364,96 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.05823003899801798</v>
+        <v>0.0728731217517527</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03196959665946383</v>
+        <v>0.002357478770737308</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03050551753402685</v>
+        <v>0.07252348647421721</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02816447338792962</v>
+        <v>0.06556158289911344</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02636718091580635</v>
+        <v>0.01675953985186442</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07455593745493802</v>
+        <v>0.0686290429730067</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04901074163776648</v>
+        <v>0.00244108076272427</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01817376997359184</v>
+        <v>0.009748048996922005</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02204626438246857</v>
+        <v>0.06357645428966453</v>
       </c>
       <c r="N9" t="n">
-        <v>0.07336742007312935</v>
+        <v>0.06927776996739082</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01343648748992565</v>
+        <v>0.02231497072786121</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02256645679289087</v>
+        <v>0.004712758907416657</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07521206722194368</v>
+        <v>0.0221556077010056</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04043565829437065</v>
+        <v>0.05182551637572693</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0372326862233217</v>
+        <v>0.07809694509545376</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02575973713033513</v>
+        <v>0.007184872985885414</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02955257110336104</v>
+        <v>0.05619782410920053</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01772738656238491</v>
+        <v>0.01692086511918723</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04768883975662137</v>
+        <v>0.0528797772127029</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01984436644699125</v>
+        <v>0.006998715736255903</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0363654040366868</v>
+        <v>0.08157843711567199</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01137977793766964</v>
+        <v>0.0199675796437388</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.07478178033989351</v>
+        <v>0.002278965833974648</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.001379241146945198</v>
+        <v>0.009893894678551883</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0002716711767769964</v>
+        <v>0.01366210317036412</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.06390046909999982</v>
+        <v>0.02584262388626573</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.05933990514767285</v>
+        <v>0.06361423308354157</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01073455307507001</v>
+        <v>0.02012670187980184</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.1183157155828668</v>
+        <v>0.1512823852638302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1471,96 +1471,96 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.06123299781308426</v>
+        <v>0.0568466130999922</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05651630638764892</v>
+        <v>0.05324713246199991</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01277664223132209</v>
+        <v>0.007293647941994703</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04997217204782295</v>
+        <v>0.003065762538960392</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004058545086200887</v>
+        <v>0.001253551077827469</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01499721803677265</v>
+        <v>0.0005862942386677532</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03500979173985663</v>
+        <v>0.05463390042504737</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04059337413840348</v>
+        <v>0.01490969911039575</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03836019904484268</v>
+        <v>0.06244383510325222</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008987215978759079</v>
+        <v>0.008730309323317628</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04055605302431421</v>
+        <v>0.06694965701764721</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03060872454302143</v>
+        <v>0.03154111902051322</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02309396020903728</v>
+        <v>0.07829931566781116</v>
       </c>
       <c r="R10" t="n">
-        <v>0.003846685976539394</v>
+        <v>0.05524066327389483</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05662233031663975</v>
+        <v>0.06516792687161475</v>
       </c>
       <c r="T10" t="n">
-        <v>0.003266022656355703</v>
+        <v>0.001932946608988795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05216659676794601</v>
+        <v>0.06451588720982698</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0560446628451836</v>
+        <v>0.0004609529074868716</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03795024814462161</v>
+        <v>0.04571529203038938</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02100255682335762</v>
+        <v>0.02066550663658995</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01975494207092818</v>
+        <v>0.001834125350456158</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.04859022993995528</v>
+        <v>0.003177417981261002</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.05615180756153058</v>
+        <v>0.07003843398615006</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.03935771886622081</v>
+        <v>0.03032893014457843</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.05323926209308436</v>
+        <v>0.01098606543899177</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.05886390116476795</v>
+        <v>0.05234202083727688</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01150728236081733</v>
+        <v>0.07774582085114815</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.06487255213096529</v>
+        <v>0.06004717284391905</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6243866827318287</v>
+        <v>0.06682014540729403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1578,96 +1578,96 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.04065327511816233</v>
+        <v>0.07690306586074455</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03862417417288966</v>
+        <v>0.02033758330622257</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07074758863217102</v>
+        <v>0.005640432885582464</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01723066540327936</v>
+        <v>0.05402447933322273</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07360820710302797</v>
+        <v>0.04228399256013457</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0720595559913316</v>
+        <v>0.07876673571335961</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001159207507911386</v>
+        <v>0.02888710554101048</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05633754819219531</v>
+        <v>0.02904334813392568</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02383314411162837</v>
+        <v>0.0640239750316865</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005784125314000394</v>
+        <v>0.001567589631613892</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03079267057391743</v>
+        <v>0.03758646710372668</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07959878042073969</v>
+        <v>0.07892783553337895</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02027442462835601</v>
+        <v>0.02161836876511719</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02801081901262313</v>
+        <v>0.01218420614839426</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001478022021517879</v>
+        <v>0.0006328134466792324</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01860844931161861</v>
+        <v>0.03515217516176613</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05906394510415196</v>
+        <v>0.06456242080774703</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03558979304068791</v>
+        <v>0.003439662067763425</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04663805055543196</v>
+        <v>0.002912541684706747</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01559848235069557</v>
+        <v>0.01727515055930914</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03262625614931797</v>
+        <v>0.02172609819501779</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01388849977155772</v>
+        <v>0.06899652015093959</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.04776254793108333</v>
+        <v>0.03004611619183742</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.002770503856489243</v>
+        <v>0.00363485283473844</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.03763148833329619</v>
+        <v>0.03447998334021449</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.07394336921575184</v>
+        <v>0.004417451590873069</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.02172899684634887</v>
+        <v>0.08463484257477051</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.03395740932981728</v>
+        <v>0.07629418584551682</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.7659465645062875</v>
+        <v>0.03233463645319895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1685,96 +1685,96 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.07027439817441473</v>
+        <v>0.01546837006100923</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02062081477084327</v>
+        <v>0.04634397265915219</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02704856798548473</v>
+        <v>0.01320585606624058</v>
       </c>
       <c r="H12" t="n">
-        <v>3.202970344231526e-05</v>
+        <v>0.01171119999692792</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01736614304093124</v>
+        <v>0.0039354999177353</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004797604239089213</v>
+        <v>0.0005306171289725604</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05248518443351628</v>
+        <v>0.06082210194957491</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03835330200155825</v>
+        <v>0.02858056327406267</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02265975134888511</v>
+        <v>0.03412178025682436</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04250452328339303</v>
+        <v>0.06084805761505092</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05180715249776718</v>
+        <v>0.05281190645806884</v>
       </c>
       <c r="P12" t="n">
-        <v>0.009944285877644066</v>
+        <v>0.003325328865557846</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04389690773620836</v>
+        <v>0.08117521790586028</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04833164468845001</v>
+        <v>0.01566755545417898</v>
       </c>
       <c r="S12" t="n">
-        <v>0.002523936703339877</v>
+        <v>0.07671837222950476</v>
       </c>
       <c r="T12" t="n">
-        <v>0.008333912490196983</v>
+        <v>0.00146474189511539</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06054440982960268</v>
+        <v>0.05537811733293461</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05391648305316007</v>
+        <v>0.06692327959254431</v>
       </c>
       <c r="W12" t="n">
-        <v>0.005495246386497309</v>
+        <v>0.00205840477528551</v>
       </c>
       <c r="X12" t="n">
-        <v>0.02838710655458603</v>
+        <v>0.04972870072069343</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.05038942957329724</v>
+        <v>0.05807764750984658</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.03792608582466112</v>
+        <v>0.02021471061131415</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.05182723648293856</v>
+        <v>0.07136786649785765</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01573467766382593</v>
+        <v>0.004838073114553948</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0649508392393315</v>
+        <v>0.06840498935974425</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.06822235163901752</v>
+        <v>0.002217795925576417</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.04268138533958837</v>
+        <v>0.02477358507421693</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.058944589438329</v>
+        <v>0.06928568775159559</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.3882959126240456</v>
+        <v>0.1047154569479621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1792,96 +1792,96 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.06770096803004039</v>
+        <v>0.05663408176046565</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06579517981406259</v>
+        <v>0.06685069573229606</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05073281391099099</v>
+        <v>0.001787643530142894</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05779023225216823</v>
+        <v>0.01253224233251258</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003734690461657116</v>
+        <v>0.007027825330274915</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01599665737264627</v>
+        <v>0.01681684868276541</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01525462821373701</v>
+        <v>0.006915488008444946</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03005055817688984</v>
+        <v>0.06776966156442957</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03281506476835696</v>
+        <v>0.01277859243386137</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02121543832050439</v>
+        <v>0.03254807908890715</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04871558014961082</v>
+        <v>0.04546162178765888</v>
       </c>
       <c r="P13" t="n">
-        <v>0.05859076215701242</v>
+        <v>0.003472024123279215</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.007049778921665442</v>
+        <v>0.07255197457205025</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05070264646707864</v>
+        <v>0.05468487556268727</v>
       </c>
       <c r="S13" t="n">
-        <v>0.003915143274875186</v>
+        <v>0.04838570636976011</v>
       </c>
       <c r="T13" t="n">
-        <v>0.007491437494055931</v>
+        <v>0.002626764685155793</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01295299755749956</v>
+        <v>0.04134835505220912</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04468219484963963</v>
+        <v>0.05873279798335889</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01778751615036728</v>
+        <v>0.01613337527615028</v>
       </c>
       <c r="X13" t="n">
-        <v>0.06371674637675788</v>
+        <v>0.005583418183006711</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01793096353057685</v>
+        <v>0.05604529106725929</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.07141947208101156</v>
+        <v>0.07349231220426437</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01857189041550646</v>
+        <v>0.0368568215586207</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.05288529965693018</v>
+        <v>0.05316163887934729</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.07116184227233033</v>
+        <v>0.07205915808959806</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02217755833748026</v>
+        <v>0.01074883312203495</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.006993687550444285</v>
+        <v>0.01570275661957115</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.06216825143610362</v>
+        <v>0.05129111639988726</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.4794126412643241</v>
+        <v>0.1112171785874146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1899,96 +1899,96 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.03963301725135227</v>
+        <v>0.003530303354061756</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06064079617759841</v>
+        <v>0.01818844072401176</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002436611749006127</v>
+        <v>0.007018736684010435</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02323869038392492</v>
+        <v>0.06033334340068345</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004811038326346769</v>
+        <v>0.007372395414736495</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01750950021236684</v>
+        <v>0.01618578468831321</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02038822935230062</v>
+        <v>0.003936171481548241</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05314753065365881</v>
+        <v>0.0344689988589032</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01465691358832422</v>
+        <v>0.005693495072876201</v>
       </c>
       <c r="N14" t="n">
-        <v>0.05043607875400496</v>
+        <v>0.003544246128038142</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05776800857512878</v>
+        <v>0.04107698805333555</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06666856209211482</v>
+        <v>0.001578221246610984</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01755236332597856</v>
+        <v>0.07651871516680117</v>
       </c>
       <c r="R14" t="n">
-        <v>0.008031097860262973</v>
+        <v>0.01386667552835837</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07280251426389486</v>
+        <v>0.07192465627784067</v>
       </c>
       <c r="T14" t="n">
-        <v>0.031148268151367</v>
+        <v>0.03807966539731554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05681581745044734</v>
+        <v>0.01994700143635588</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06852074542423113</v>
+        <v>0.0635508409812653</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04784368064607833</v>
+        <v>0.0540309772947909</v>
       </c>
       <c r="X14" t="n">
-        <v>0.004555314062276571</v>
+        <v>0.06353650751844393</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02892092728977233</v>
+        <v>0.06480745849216187</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.008838559510956941</v>
+        <v>0.0394553979960499</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.07397057468814938</v>
+        <v>0.07329360312659787</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0155472800041246</v>
+        <v>0.06625716711617012</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02320139182004442</v>
+        <v>0.003391853971733402</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.07351648517693828</v>
+        <v>0.04129463504095065</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0008875377584702165</v>
+        <v>0.02757580757059569</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.05651246545087971</v>
+        <v>0.07954191197743923</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.5253796714843512</v>
+        <v>0.2632376752257801</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2006,96 +2006,96 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.04090896853986965</v>
+        <v>0.07049067232786094</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03188103000672227</v>
+        <v>0.06991762621377504</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05228324387009812</v>
+        <v>0.02912728835711984</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006472678778098766</v>
+        <v>0.02756753369325883</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01329707088190435</v>
+        <v>0.02842480570849503</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06554925492657712</v>
+        <v>0.07558037820361693</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01094637621985593</v>
+        <v>0.01288522814158617</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06949673777074936</v>
+        <v>0.005094646344972368</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06972549824496173</v>
+        <v>0.06777693539315913</v>
       </c>
       <c r="N15" t="n">
-        <v>0.06038486480201725</v>
+        <v>0.04808629894056493</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0662186896202219</v>
+        <v>0.07408523462395393</v>
       </c>
       <c r="P15" t="n">
-        <v>0.006167729311985596</v>
+        <v>0.0005173515052358002</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.005427910516859244</v>
+        <v>0.03899941229794917</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0007069711169685586</v>
+        <v>0.05181165671516932</v>
       </c>
       <c r="S15" t="n">
-        <v>0.006473220186745014</v>
+        <v>0.025367007597788</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01402606746427252</v>
+        <v>0.04665492002245841</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02382363760664912</v>
+        <v>0.002822730451909005</v>
       </c>
       <c r="V15" t="n">
-        <v>0.06333018445017398</v>
+        <v>0.007016717398377054</v>
       </c>
       <c r="W15" t="n">
-        <v>0.06156471375981021</v>
+        <v>0.03110301794902618</v>
       </c>
       <c r="X15" t="n">
-        <v>0.04206476837726608</v>
+        <v>0.03118964096889842</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.02711308060444635</v>
+        <v>0.04886733952032285</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.006299582542367719</v>
+        <v>0.005134168159230785</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.05262400034796462</v>
+        <v>0.04957978211243644</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.06868097031802993</v>
+        <v>0.07631480307835259</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02523199964338404</v>
+        <v>0.02384299397987153</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.02701138869779545</v>
+        <v>0.01131761311460812</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.02555287074786286</v>
+        <v>0.0354013013598674</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.05673649064634225</v>
+        <v>0.00502289582013577</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.5868106082933506</v>
+        <v>0.2833550773631491</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2113,96 +2113,96 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.01764768938803146</v>
+        <v>0.01674622744297613</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02927613232151505</v>
+        <v>0.003184668980106013</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006551229191063849</v>
+        <v>0.05841487035375096</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03928805327232139</v>
+        <v>0.04491195369997249</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03395187988459037</v>
+        <v>0.06360437400973387</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01323238818969945</v>
+        <v>0.01563343587303983</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0458689873921021</v>
+        <v>0.0361900443174452</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03113640259336525</v>
+        <v>0.003666110679966512</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01272913877776535</v>
+        <v>0.003443683659795461</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01404718373276876</v>
+        <v>0.001427591677260405</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06328056983849475</v>
+        <v>0.01071213179864866</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01906474651821728</v>
+        <v>0.00410473599724703</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05894932215233193</v>
+        <v>0.06432638631460784</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06078313546701972</v>
+        <v>0.05535973437207869</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06284112990888042</v>
+        <v>0.0700038598356303</v>
       </c>
       <c r="T16" t="n">
-        <v>0.003025906315098654</v>
+        <v>0.005237380568976857</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01444647610995234</v>
+        <v>0.05640421410153644</v>
       </c>
       <c r="V16" t="n">
-        <v>0.04040196026503914</v>
+        <v>0.04458186507362658</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03500242687760566</v>
+        <v>0.04799510823934837</v>
       </c>
       <c r="X16" t="n">
-        <v>0.05824343655967101</v>
+        <v>0.0664374941038076</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.02625218286431496</v>
+        <v>0.006695178142860423</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.06473818316107526</v>
+        <v>0.05506864762857654</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.05663257300237248</v>
+        <v>0.0674283397426327</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.04755513490762941</v>
+        <v>0.01442062765994152</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.004547687664986061</v>
+        <v>0.02308870388321787</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.04483135428783337</v>
+        <v>0.03180254814756379</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.03074924855006086</v>
+        <v>0.05320197302269934</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.06492544080619364</v>
+        <v>0.07590811067295257</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.6217178444566277</v>
+        <v>0.1261272946345119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2220,96 +2220,96 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.85861408899988e-05</v>
+        <v>0.01601715927607795</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01096634084878802</v>
+        <v>0.005130113467799765</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05940265110518431</v>
+        <v>0.05516972124799588</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06299501902611652</v>
+        <v>0.0622079059569608</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0087454455665835</v>
+        <v>0.008461712557567285</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0369714423482026</v>
+        <v>0.003756495688264979</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003026699149208552</v>
+        <v>0.01806235310081721</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001178037819129667</v>
+        <v>0.007517350724351121</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03240346184587293</v>
+        <v>0.06590259610581095</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0507977521021249</v>
+        <v>0.008310884978193421</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06210168842907582</v>
+        <v>0.0504746305999924</v>
       </c>
       <c r="P17" t="n">
-        <v>0.00626250153613026</v>
+        <v>0.00849943891072202</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01442741100147519</v>
+        <v>0.007939641372022143</v>
       </c>
       <c r="R17" t="n">
-        <v>0.002780193421563422</v>
+        <v>0.0222866979815905</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02251401844024954</v>
+        <v>0.03262188548035929</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04899812486530861</v>
+        <v>0.05769509356627378</v>
       </c>
       <c r="U17" t="n">
-        <v>0.007844908435235659</v>
+        <v>0.06832528407596009</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0671584829152595</v>
+        <v>0.01242388937447709</v>
       </c>
       <c r="W17" t="n">
-        <v>0.07024172576985695</v>
+        <v>0.06229529454572331</v>
       </c>
       <c r="X17" t="n">
-        <v>0.05797861166526928</v>
+        <v>0.04904522587929375</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.06386221671970241</v>
+        <v>0.07814596850132589</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.00644585432668706</v>
+        <v>0.03849713667398555</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.06828836667121865</v>
+        <v>0.03022624244955128</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01424825709932195</v>
+        <v>0.04879609947286875</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.07037267775914845</v>
+        <v>0.04822419776934282</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.04686544519035946</v>
+        <v>0.01401252180189258</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.03419757908660427</v>
+        <v>0.05635908676878049</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.06883650071543254</v>
+        <v>0.06359537167199901</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.751397756958066</v>
+        <v>0.164717646385882</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2327,96 +2327,96 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.01169554816455431</v>
+        <v>0.0423789514194281</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009491041227994804</v>
+        <v>0.008503817576916308</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05074709589212794</v>
+        <v>0.004222285366220503</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02083221331932244</v>
+        <v>0.05029158131831516</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0730273876317616</v>
+        <v>0.06295547864132044</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01599373692133114</v>
+        <v>0.007359472176627518</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03186696625999315</v>
+        <v>0.0142681697323004</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04118576010297694</v>
+        <v>0.01874359440231653</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01738922443815216</v>
+        <v>0.02303058569962703</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02136030668501638</v>
+        <v>0.006735487027916057</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04018640969800912</v>
+        <v>0.05728639215908343</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01384741670760771</v>
+        <v>0.01214755299016824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.06675632965825229</v>
+        <v>0.04974214536963258</v>
       </c>
       <c r="R18" t="n">
-        <v>0.02545425568746399</v>
+        <v>0.008822427063118908</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01380623781268196</v>
+        <v>0.006057283452891626</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02289683730715213</v>
+        <v>0.02064339343942448</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06780868232026621</v>
+        <v>0.06735727032837646</v>
       </c>
       <c r="V18" t="n">
-        <v>0.07316159751896523</v>
+        <v>0.06264459012903746</v>
       </c>
       <c r="W18" t="n">
-        <v>0.04074380951258892</v>
+        <v>0.0001300432678016862</v>
       </c>
       <c r="X18" t="n">
-        <v>0.05014123985690228</v>
+        <v>0.06675733188207167</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0403457041738746</v>
+        <v>0.06281733119002071</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02803982658271085</v>
+        <v>0.04903221748704118</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.06922278361978224</v>
+        <v>0.0659479138894359</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01749513019051443</v>
+        <v>0.0583513216359325</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.03579590111374106</v>
+        <v>0.03952069485319349</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0462851807583813</v>
+        <v>0.05560948460852847</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.009643171808904791</v>
+        <v>0.0125477498028614</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.04478020502896986</v>
+        <v>0.06609543309039172</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.3471138717291004</v>
+        <v>0.02137581952144395</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2434,96 +2434,96 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.07255815581923207</v>
+        <v>0.07580765485701557</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0280080301837769</v>
+        <v>0.06455416512450245</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01650010470348686</v>
+        <v>0.006887952881432935</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0250480457777899</v>
+        <v>0.003195054811402876</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0004120559360183783</v>
+        <v>0.02063580469358067</v>
       </c>
       <c r="J19" t="n">
-        <v>0.004953576382005339</v>
+        <v>0.01619385529698178</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0768363939772238</v>
+        <v>0.0597524576859307</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0008150086199941745</v>
+        <v>0.009910218226075997</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04874315736735451</v>
+        <v>0.07413301647678237</v>
       </c>
       <c r="N19" t="n">
-        <v>0.02957796098118661</v>
+        <v>0.06262204475140089</v>
       </c>
       <c r="O19" t="n">
-        <v>0.06619651413810008</v>
+        <v>0.06882745692277342</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0152258893417079</v>
+        <v>0.01226734179932544</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03997146663076415</v>
+        <v>0.01442193076169729</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02186798265481012</v>
+        <v>0.02012054334831419</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01737446218132844</v>
+        <v>0.03649000093206983</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02516235883562112</v>
+        <v>0.03178793921580365</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02574803006088726</v>
+        <v>0.00519582117882222</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01605567268791626</v>
+        <v>0.01381837901354824</v>
       </c>
       <c r="W19" t="n">
-        <v>0.07819574472314038</v>
+        <v>0.0005118377702677718</v>
       </c>
       <c r="X19" t="n">
-        <v>0.04594626954250065</v>
+        <v>0.03904476110779539</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.05525694282256143</v>
+        <v>0.06101003452941929</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.04940345115090298</v>
+        <v>0.006704053170167166</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03141259361672346</v>
+        <v>0.06907958939242795</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01236711653391364</v>
+        <v>0.01642248294617903</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0740042887029216</v>
+        <v>0.06779791323681307</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.05445054802127073</v>
+        <v>0.02010068301937311</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.03223972948662068</v>
+        <v>0.07331791880445737</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.03566844912024056</v>
+        <v>0.04938908804563937</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.5950388050452321</v>
+        <v>0.02830738595379083</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2541,96 +2541,96 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.002167672889963288</v>
+        <v>0.06461527985160004</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005843214809007354</v>
+        <v>0.0131793838051955</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03113837142096544</v>
+        <v>0.03570852444233698</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0303277598864717</v>
+        <v>0.03972356910991247</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04648945058368523</v>
+        <v>0.01038229836892164</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01100781707436487</v>
+        <v>0.002004458200576153</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02674193225078979</v>
+        <v>0.032560082163709</v>
       </c>
       <c r="L20" t="n">
-        <v>0.009427514497931066</v>
+        <v>0.0175738650379359</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07329144006926738</v>
+        <v>0.06217162856501408</v>
       </c>
       <c r="N20" t="n">
-        <v>0.007212159641734201</v>
+        <v>0.0128504630314234</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01060177291991753</v>
+        <v>0.04095227510942785</v>
       </c>
       <c r="P20" t="n">
-        <v>0.02161419965532367</v>
+        <v>0.003276288906724851</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01303651573035981</v>
+        <v>0.07056069002096911</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04414601633903333</v>
+        <v>0.05920309456564003</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05813193730915164</v>
+        <v>0.06576758341017769</v>
       </c>
       <c r="T20" t="n">
-        <v>0.02712795477720573</v>
+        <v>0.005660636244077397</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05907080338808039</v>
+        <v>0.06698877331324803</v>
       </c>
       <c r="V20" t="n">
-        <v>0.05978982376062075</v>
+        <v>0.05051406230735549</v>
       </c>
       <c r="W20" t="n">
-        <v>0.06620588616507268</v>
+        <v>0.01739299610414522</v>
       </c>
       <c r="X20" t="n">
-        <v>0.07221486429495465</v>
+        <v>0.0007285146401639768</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02620714325542865</v>
+        <v>0.01548455473536879</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.06446010483990612</v>
+        <v>0.02367063616402628</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.03714577257375345</v>
+        <v>0.03492548753449799</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.04376759992437383</v>
+        <v>0.07187467998555869</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.06846951213334085</v>
+        <v>0.01361243903465636</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.03620260887026276</v>
+        <v>0.06535438960960957</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.003955287026230021</v>
+        <v>0.02988223039304669</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.04420486391280393</v>
+        <v>0.07338111534468082</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.2853584501179718</v>
+        <v>0.1025956167624958</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2648,96 +2648,96 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.00172783977484803</v>
+        <v>0.002542007166976942</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007680428794803074</v>
+        <v>0.07390966087153411</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02094960551027225</v>
+        <v>0.01354497302232019</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06421435603695345</v>
+        <v>0.04777359124081727</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002692995182081025</v>
+        <v>0.001427560466109317</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05105913949871827</v>
+        <v>0.05653234787252643</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02052152195870427</v>
+        <v>0.0609917057564353</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001320160297022803</v>
+        <v>0.0004446688327092572</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07943102914932661</v>
+        <v>0.06227628551478686</v>
       </c>
       <c r="N21" t="n">
-        <v>0.013749884691332</v>
+        <v>0.0156692130994524</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06682304980725373</v>
+        <v>0.09447309362486681</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01878258097257966</v>
+        <v>0.002318172365825019</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.07920762775445567</v>
+        <v>0.04864763257133814</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0007670619751725668</v>
+        <v>0.06256291142913914</v>
       </c>
       <c r="S21" t="n">
-        <v>0.08635954127457987</v>
+        <v>0.02091041132422387</v>
       </c>
       <c r="T21" t="n">
-        <v>0.07116581285848614</v>
+        <v>0.02961750036223147</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01893239541065993</v>
+        <v>0.002901660892623765</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02132999870233216</v>
+        <v>0.0275491850359808</v>
       </c>
       <c r="W21" t="n">
-        <v>0.02055374454697028</v>
+        <v>0.00962761366695377</v>
       </c>
       <c r="X21" t="n">
-        <v>0.005055362015018701</v>
+        <v>0.01085971979840697</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.03876682456008378</v>
+        <v>0.0474889701644537</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.09183681657617163</v>
+        <v>0.07458046767457302</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.009266991761408511</v>
+        <v>0.01158999623083652</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.05633514121966531</v>
+        <v>0.07250622778626142</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0471195511789918</v>
+        <v>0.0948022897926989</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.08121760875758631</v>
+        <v>0.005366621473313344</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01992218227556285</v>
+        <v>0.03861181014588787</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.003210747458959192</v>
+        <v>0.01047370181671747</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.3173924356761887</v>
+        <v>0.08603522440516155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2755,96 +2755,96 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.005978406658194537</v>
+        <v>0.01644285601871134</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01919771017889254</v>
+        <v>0.01671738091796106</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06548287771252957</v>
+        <v>0.05828684324833162</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02460657407255533</v>
+        <v>0.01039168132819564</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0175526839189737</v>
+        <v>0.01803841014986497</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01448414498651528</v>
+        <v>0.04846524965139681</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02412950592719135</v>
+        <v>0.03335556098208922</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03086166379409636</v>
+        <v>0.0225707054808584</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0500072712662722</v>
+        <v>0.06166200655247041</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01430711385811266</v>
+        <v>0.008177899908735313</v>
       </c>
       <c r="O22" t="n">
-        <v>0.06759770327426663</v>
+        <v>0.02713665223204895</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01330761643968261</v>
+        <v>0.0752134447368757</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04679252019840627</v>
+        <v>0.02949026079495484</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04667884543706631</v>
+        <v>0.0236724531699177</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04492658427682339</v>
+        <v>0.07144152530389351</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02147410854190516</v>
+        <v>0.01506608005446544</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0478144035139411</v>
+        <v>0.04633314916547838</v>
       </c>
       <c r="V22" t="n">
-        <v>0.03979327179569345</v>
+        <v>0.07235221435912267</v>
       </c>
       <c r="W22" t="n">
-        <v>0.06775030297343838</v>
+        <v>0.03147056047410614</v>
       </c>
       <c r="X22" t="n">
-        <v>0.02987170968797239</v>
+        <v>0.02105105956825213</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.04332746415941684</v>
+        <v>0.01193147150307996</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04796521394392705</v>
+        <v>0.01176310563857466</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05651570764470808</v>
+        <v>0.0414400532722284</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02950828953461723</v>
+        <v>0.071153039854966</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.00765770734643079</v>
+        <v>0.006619369753985729</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.03801504303014674</v>
+        <v>0.06313629823155119</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.03094880469126193</v>
+        <v>0.02641128147592854</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.05344675113696215</v>
+        <v>0.06020938617195534</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.3400577094974707</v>
+        <v>0.2278792405119087</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2862,96 +2862,96 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.02857315046515961</v>
+        <v>0.009416551202367056</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01246993168041633</v>
+        <v>0.009826807898341384</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005300738781927699</v>
+        <v>0.03671902262799125</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002315127834278987</v>
+        <v>0.01809725824238253</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06480774032517912</v>
+        <v>0.06596192965755814</v>
       </c>
       <c r="J23" t="n">
-        <v>0.003749942882012129</v>
+        <v>0.002881391734197181</v>
       </c>
       <c r="K23" t="n">
-        <v>0.009786368471749607</v>
+        <v>0.03280883270108109</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04780499143456929</v>
+        <v>0.05463594084103261</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03531704700582008</v>
+        <v>0.02479195282464387</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06841967548060436</v>
+        <v>0.07663889959181948</v>
       </c>
       <c r="O23" t="n">
-        <v>0.05585201914580652</v>
+        <v>0.05725732593316985</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04781823382389263</v>
+        <v>0.05696412273105731</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.06435324304143093</v>
+        <v>0.02016321383470245</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01153637560013172</v>
+        <v>0.0183229379769721</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03761412162401768</v>
+        <v>0.01918444529794043</v>
       </c>
       <c r="T23" t="n">
-        <v>0.07824531728313171</v>
+        <v>0.05961537217799202</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01424382913945822</v>
+        <v>0.01025606333168907</v>
       </c>
       <c r="V23" t="n">
-        <v>0.05788638858677569</v>
+        <v>0.03602522473238466</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07876764005251545</v>
+        <v>0.02525453773125522</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03326171694639236</v>
+        <v>0.005054008125165574</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01215474613089251</v>
+        <v>0.02215356578585898</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01255661166117034</v>
+        <v>0.01232492455566604</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0293997897370826</v>
+        <v>0.04692487667475834</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.03199204365284635</v>
+        <v>0.01527135856861195</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0833738706745045</v>
+        <v>0.07232908168954487</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.03345685870257745</v>
+        <v>0.05621983623179554</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.03655605926007512</v>
+        <v>0.06698572844196604</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.002386420575581269</v>
+        <v>0.06791478885805481</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.4545018498056765</v>
+        <v>0.2454375897255672</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2969,96 +2969,96 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.05451331361205832</v>
+        <v>0.05127296900843789</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01671241689292222</v>
+        <v>0.008245031602549384</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01289072712298767</v>
+        <v>0.05000629420735175</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01783054456995804</v>
+        <v>0.006203513566246061</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00884610620147201</v>
+        <v>0.0207063366723247</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02067744929650022</v>
+        <v>0.03849235080979024</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06982937085444678</v>
+        <v>0.02194499725981082</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0700610189920733</v>
+        <v>0.04911976155185964</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07191833394492406</v>
+        <v>0.0716932057303888</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0120877100494712</v>
+        <v>0.02846572148160563</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05230881007146078</v>
+        <v>0.04688004172138327</v>
       </c>
       <c r="P24" t="n">
-        <v>0.05066189166273959</v>
+        <v>0.00804965894945571</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03273605079250533</v>
+        <v>0.02767728240526059</v>
       </c>
       <c r="R24" t="n">
-        <v>0.009574939903417659</v>
+        <v>0.01482719549392463</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05414191590733437</v>
+        <v>0.06235069197744857</v>
       </c>
       <c r="T24" t="n">
-        <v>0.002225103028725605</v>
+        <v>0.004591651074534081</v>
       </c>
       <c r="U24" t="n">
-        <v>0.045791913767205</v>
+        <v>0.06833426141141075</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0392067330664431</v>
+        <v>0.07219497494204058</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03624805342323113</v>
+        <v>0.04128926067603709</v>
       </c>
       <c r="X24" t="n">
-        <v>0.04767992758985317</v>
+        <v>0.01274145201590842</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.004723627157310424</v>
+        <v>0.01193255001796798</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.04179340898973123</v>
+        <v>0.06586681835086786</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02265243489630853</v>
+        <v>0.07669705567816704</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.04476297594334703</v>
+        <v>0.0006270167162962238</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.06642876471261686</v>
+        <v>0.0279327230056798</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.00877389467822149</v>
+        <v>0.01906154526123851</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01922579694914641</v>
+        <v>0.04639863060310204</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.06569676592358849</v>
+        <v>0.04639700780891195</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.3831069727196771</v>
+        <v>-0.01655515558511036</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3076,96 +3076,96 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.01423810587192365</v>
+        <v>0.03535801551073365</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02093562139574178</v>
+        <v>0.005878710576614122</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05616776865688624</v>
+        <v>0.0604551766142427</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06204036366884198</v>
+        <v>0.06780242314316978</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06935079223900668</v>
+        <v>0.03013491042560019</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07564868519624986</v>
+        <v>0.05237072218516594</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01028072336973005</v>
+        <v>0.02623788356838885</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05134610627169219</v>
+        <v>0.009291673558405373</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005228006319831708</v>
+        <v>0.02969736235372205</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01805427576214808</v>
+        <v>0.009298424059359966</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03066883568746714</v>
+        <v>0.05378522918555941</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0332268797268714</v>
+        <v>0.06392007493771587</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01473864742104739</v>
+        <v>0.002624493410062177</v>
       </c>
       <c r="R25" t="n">
-        <v>0.007317635792570523</v>
+        <v>0.001041183368187154</v>
       </c>
       <c r="S25" t="n">
-        <v>0.04204862103404305</v>
+        <v>0.05716916375280647</v>
       </c>
       <c r="T25" t="n">
-        <v>0.001035665711078682</v>
+        <v>0.07882370316130603</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003278015990598712</v>
+        <v>0.009371194016207783</v>
       </c>
       <c r="V25" t="n">
-        <v>0.04976852284277376</v>
+        <v>0.06258753382229502</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02308513594845792</v>
+        <v>0.06266877782416617</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01016087953587297</v>
+        <v>0.01307275118591464</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.07007665205476361</v>
+        <v>0.03520688144035565</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.04010043306648626</v>
+        <v>0.04327955642226614</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.04445127657301399</v>
+        <v>0.0148722698407401</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.006147442198726424</v>
+        <v>0.07984825761698716</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.07561398391369444</v>
+        <v>0.01246995484541713</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.073912961316834</v>
+        <v>0.003863852169006626</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01387506083293528</v>
+        <v>0.006311533673120129</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.07720290160071229</v>
+        <v>0.07255828733248366</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.540189402614181</v>
+        <v>-0.01563138703948006</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3183,96 +3183,96 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.01158723344319061</v>
+        <v>0.02335104409951875</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0206193795088889</v>
+        <v>0.03636262686722591</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00759339908748342</v>
+        <v>0.01973631500471103</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02739471678425729</v>
+        <v>0.02518252448539612</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01119949047918386</v>
+        <v>0.04362796913946144</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01423279552778738</v>
+        <v>0.01131982656343743</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03053788146041918</v>
+        <v>0.01748230938406224</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003602770364105621</v>
+        <v>0.0395155437540004</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06883506235039487</v>
+        <v>0.05759664566319235</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02250315377540238</v>
+        <v>6.772733631777603e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001408316709186688</v>
+        <v>0.02902372487654864</v>
       </c>
       <c r="P26" t="n">
-        <v>0.05053309128504055</v>
+        <v>0.06882248043713286</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02027606612508933</v>
+        <v>0.04651756012208575</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06270801951663034</v>
+        <v>0.01904030340880348</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06249113326373507</v>
+        <v>0.06583582180377137</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04009384409810429</v>
+        <v>0.01887889563727681</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07666637498914572</v>
+        <v>0.06526014625451655</v>
       </c>
       <c r="V26" t="n">
-        <v>0.07688582663483873</v>
+        <v>0.04579036599371623</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01689928152036243</v>
+        <v>0.007232123869323733</v>
       </c>
       <c r="X26" t="n">
-        <v>0.05960894028019155</v>
+        <v>0.01457222251991114</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0003323777974013693</v>
+        <v>0.002478280999739027</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02260872807204847</v>
+        <v>0.03164432820754439</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01218089213692694</v>
+        <v>0.07173489894814468</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.05039140528619083</v>
+        <v>0.01067857092379674</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.06524991538651184</v>
+        <v>0.01271776993565822</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.06909363033266934</v>
+        <v>0.070292253630667</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.04906392870025079</v>
+        <v>0.07518195357755174</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.04540234508456233</v>
+        <v>0.07005576655648814</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.4586248185494775</v>
+        <v>0.2100097812072376</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3290,96 +3290,96 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.05366805080449381</v>
+        <v>0.00419733494098714</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02411041015170731</v>
+        <v>0.06562256595721191</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0405690475609242</v>
+        <v>0.04866095556823802</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0267652318190146</v>
+        <v>0.02705415715637513</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01608367019537466</v>
+        <v>0.004686246628287519</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07506287267765407</v>
+        <v>0.06639598366667365</v>
       </c>
       <c r="K27" t="n">
-        <v>0.008061115187332114</v>
+        <v>0.05825000308242197</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05175815971114144</v>
+        <v>0.01622345826198383</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04029523230272566</v>
+        <v>0.02835257381643424</v>
       </c>
       <c r="N27" t="n">
-        <v>0.004443323837445557</v>
+        <v>0.01719972226014711</v>
       </c>
       <c r="O27" t="n">
-        <v>0.004225648362317854</v>
+        <v>0.01310745305028853</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02037143492859362</v>
+        <v>0.05661638041349615</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.04793217142608525</v>
+        <v>0.01928906394657979</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05407934364120229</v>
+        <v>0.04619627226324452</v>
       </c>
       <c r="S27" t="n">
-        <v>0.008212068798983238</v>
+        <v>0.02936326843290547</v>
       </c>
       <c r="T27" t="n">
-        <v>0.03765062363884678</v>
+        <v>0.01563868890347887</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04727183988829621</v>
+        <v>0.04435433709118699</v>
       </c>
       <c r="V27" t="n">
-        <v>0.07529242033569826</v>
+        <v>0.04436106540103962</v>
       </c>
       <c r="W27" t="n">
-        <v>0.003535282354272453</v>
+        <v>0.006863427745518456</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0832971299601772</v>
+        <v>0.06424553903999228</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.05233345683517174</v>
+        <v>0.0591529974630166</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.07445897455764353</v>
+        <v>0.04843395876813458</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01836874708744223</v>
+        <v>0.001232080634187088</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.04415884507768004</v>
+        <v>0.006690435531470254</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.04218025359992049</v>
+        <v>0.06290086080964283</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.0150067322991097</v>
+        <v>0.05675879296346139</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.01802863792038754</v>
+        <v>0.02222527226336102</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.0127792750403582</v>
+        <v>0.06592710394023511</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.6558505822602048</v>
+        <v>0.2336003028751059</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -3397,96 +3397,96 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.02119742777894412</v>
+        <v>0.01151753172242148</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05160201283059723</v>
+        <v>0.02624832864635565</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05679622721463162</v>
+        <v>0.02272103676724297</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02087976207188591</v>
+        <v>0.01412159754058951</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0456985541500504</v>
+        <v>0.01600589073322894</v>
       </c>
       <c r="J28" t="n">
-        <v>0.006484511718526725</v>
+        <v>0.0100361514465412</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0009427800553996334</v>
+        <v>0.00679069214257832</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05652368443133292</v>
+        <v>0.04658315926222125</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07004889616693318</v>
+        <v>0.06509407365011795</v>
       </c>
       <c r="N28" t="n">
-        <v>0.06439414206715015</v>
+        <v>0.02707846991352808</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01417115293664053</v>
+        <v>0.03836835992001153</v>
       </c>
       <c r="P28" t="n">
-        <v>0.04600862425823743</v>
+        <v>0.04716048690872782</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.04047445100609625</v>
+        <v>0.04025881231732349</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02104870182913967</v>
+        <v>0.005707532549311724</v>
       </c>
       <c r="S28" t="n">
-        <v>0.02057292342054482</v>
+        <v>0.06988127404451454</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03534280961185005</v>
+        <v>0.03558893898782746</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0495329643582447</v>
+        <v>0.06975207080451695</v>
       </c>
       <c r="V28" t="n">
-        <v>0.06783984449219689</v>
+        <v>0.0397263619695973</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0002295773530187256</v>
+        <v>0.02756491123206188</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01539550716361289</v>
+        <v>0.06905581009482198</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.005997597256810217</v>
+        <v>0.01664285055124159</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03648714708056185</v>
+        <v>0.05544518607133936</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.06914171518815149</v>
+        <v>0.02826025767520097</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.05343287831956114</v>
+        <v>0.04610882212640421</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.01450353144587372</v>
+        <v>0.03514411240865571</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06091986202924831</v>
+        <v>0.07165028221245</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.01625123873787877</v>
+        <v>0.04555043292399407</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.0380814750268808</v>
+        <v>0.01193656537717411</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.288970516868839</v>
+        <v>0.04439800192262228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3504,91 +3504,91 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.06782088352050467</v>
+        <v>0.07302278715716638</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06268439696854194</v>
+        <v>0.0225945580930137</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06957833495063674</v>
+        <v>0.01968571689607879</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01072816946348155</v>
+        <v>0.009282073381736191</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004188523794882369</v>
+        <v>0.001292563686344301</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04322666799576903</v>
+        <v>0.06818705802035813</v>
       </c>
       <c r="K29" t="n">
-        <v>0.004589051029219427</v>
+        <v>0.04115183152545387</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02814611252524883</v>
+        <v>0.02393368641758804</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04340285664457486</v>
+        <v>0.05581206749252498</v>
       </c>
       <c r="N29" t="n">
-        <v>0.06334715319662561</v>
+        <v>0.06733922876329261</v>
       </c>
       <c r="O29" t="n">
-        <v>0.04796903583496478</v>
+        <v>0.05704316182633644</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0573296110857576</v>
+        <v>0.03481747752676948</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.04953892624418848</v>
+        <v>0.006836103515717111</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01326760577331581</v>
+        <v>0.0008005679737693741</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02149932278650542</v>
+        <v>0.003668063244969473</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01117464214143597</v>
+        <v>0.03294922482304403</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05996211503384628</v>
+        <v>0.08394714176267731</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01919422947838063</v>
+        <v>0.031073011319699</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01708714854528006</v>
+        <v>0.0231728245833407</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02785686716405943</v>
+        <v>0.01926406764413528</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.07174224610075071</v>
+        <v>0.05390891582235122</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02962703126342692</v>
+        <v>0.06597622533025449</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.03227550691834034</v>
+        <v>0.06453940822333676</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0183302285697078</v>
+        <v>0.007622623870422976</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.02436861268900992</v>
+        <v>0.06784462934578231</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.06316618629505028</v>
+        <v>0.03028384317748452</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.01359712512431953</v>
+        <v>4.774482379319358e-05</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.02430140886217502</v>
+        <v>0.03390339375255947</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.5028876898169599</v>
+        <v>0.171934367452987</v>
       </c>
     </row>
   </sheetData>
